--- a/Project/1St_Project_요구명세서.xlsx
+++ b/Project/1St_Project_요구명세서.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milkp\OneDrive\문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Park_work\workspace\PHPFULLSTACK\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6971C64-B1AB-4567-834E-3124DAD04FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{5A433B83-7E19-4397-A584-296BC48AB9FF}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="21795" windowHeight="13875"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -312,13 +311,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-- 작성 취소 버튼으로 제어 가능하게 구현
-- 버튼을 클릭 시 작성 페이지로 이동
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
 - 수정 취소 버튼으로 제어 가능하게 구현
 - 버튼을 클릭 시 상세 페이지로 이동
 </t>
@@ -387,11 +379,18 @@
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">
+- 작성 취소 버튼으로 제어 가능하게 구현
+- 버튼을 클릭 시 리스트 페이지로 이동
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -598,30 +597,6 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -635,10 +610,34 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -953,28 +952,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7359F8-D5AF-4CA7-A47F-22256C400912}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.3125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.0625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.8125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="25.4375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
@@ -1000,11 +999,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="135" x14ac:dyDescent="0.6">
-      <c r="B4" s="26" t="s">
+    <row r="4" spans="2:9" ht="132" x14ac:dyDescent="0.3">
+      <c r="B4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -1024,9 +1023,9 @@
       </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="2:9" ht="67.5" x14ac:dyDescent="0.6">
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
+    <row r="5" spans="2:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="7" t="s">
         <v>14</v>
       </c>
@@ -1042,9 +1041,9 @@
       <c r="H5" s="9"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="2:9" ht="67.5" x14ac:dyDescent="0.6">
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
+    <row r="6" spans="2:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="7" t="s">
         <v>15</v>
       </c>
@@ -1060,11 +1059,11 @@
       <c r="H6" s="9"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="2:9" ht="101.25" x14ac:dyDescent="0.6">
-      <c r="B7" s="24" t="s">
+    <row r="7" spans="2:9" ht="99" x14ac:dyDescent="0.3">
+      <c r="B7" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="33" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -1084,9 +1083,9 @@
       </c>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="2:9" ht="101.25" x14ac:dyDescent="0.6">
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+    <row r="8" spans="2:9" ht="99" x14ac:dyDescent="0.3">
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="12" t="s">
         <v>37</v>
       </c>
@@ -1102,13 +1101,13 @@
       <c r="H8" s="14"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="2:9" ht="84.4" x14ac:dyDescent="0.6">
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+    <row r="9" spans="2:9" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="21" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="12" t="s">
@@ -1120,9 +1119,9 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="2:9" ht="67.5" x14ac:dyDescent="0.6">
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+    <row r="10" spans="2:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="15" t="s">
         <v>23</v>
       </c>
@@ -1138,11 +1137,11 @@
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
     </row>
-    <row r="11" spans="2:9" ht="101.25" x14ac:dyDescent="0.6">
-      <c r="B11" s="21" t="s">
+    <row r="11" spans="2:9" ht="99" x14ac:dyDescent="0.3">
+      <c r="B11" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="28" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="18" t="s">
@@ -1162,9 +1161,9 @@
       </c>
       <c r="I11" s="18"/>
     </row>
-    <row r="12" spans="2:9" ht="118.15" x14ac:dyDescent="0.6">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+    <row r="12" spans="2:9" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="18" t="s">
         <v>38</v>
       </c>
@@ -1182,9 +1181,9 @@
       </c>
       <c r="I12" s="18"/>
     </row>
-    <row r="13" spans="2:9" ht="84.4" x14ac:dyDescent="0.6">
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
+    <row r="13" spans="2:9" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="18" t="s">
         <v>40</v>
       </c>
@@ -1195,34 +1194,34 @@
         <v>41</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
     </row>
-    <row r="14" spans="2:9" ht="67.5" x14ac:dyDescent="0.6">
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
+    <row r="14" spans="2:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="18" t="s">
+      <c r="G14" s="20" t="s">
         <v>61</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>62</v>
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
     </row>
-    <row r="15" spans="2:9" ht="101.25" x14ac:dyDescent="0.6">
-      <c r="B15" s="28" t="s">
+    <row r="15" spans="2:9" ht="99" x14ac:dyDescent="0.3">
+      <c r="B15" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="27" t="s">
         <v>49</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -1242,9 +1241,9 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="2:9" ht="135" x14ac:dyDescent="0.6">
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
+    <row r="16" spans="2:9" ht="132" x14ac:dyDescent="0.3">
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="4" t="s">
         <v>52</v>
       </c>
@@ -1262,9 +1261,9 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="2:9" ht="84.4" x14ac:dyDescent="0.6">
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
+    <row r="17" spans="2:9" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="4" t="s">
         <v>57</v>
       </c>
@@ -1275,83 +1274,83 @@
         <v>25</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="2:9" ht="101.25" x14ac:dyDescent="0.6">
-      <c r="B18" s="33" t="s">
+    <row r="18" spans="2:9" ht="99" x14ac:dyDescent="0.3">
+      <c r="B18" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" spans="2:9" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="I18" s="31"/>
-    </row>
-    <row r="19" spans="2:9" ht="84.4" x14ac:dyDescent="0.6">
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="31" t="s">
+      <c r="E19" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="G19" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" spans="2:9" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-    </row>
-    <row r="20" spans="2:9" ht="84.4" x14ac:dyDescent="0.6">
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="31" t="s">
+      <c r="F20" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
